--- a/test-code-generator/Evaluation/QualitativeEvaluation/TemplateExperts/UC1_TC4/3/UC1_TC4.evaluation.xlsx
+++ b/test-code-generator/Evaluation/QualitativeEvaluation/TemplateExperts/UC1_TC4/3/UC1_TC4.evaluation.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="48">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -260,6 +260,9 @@
     </r>
   </si>
   <si>
+    <t>Some missing error logic</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Aptos Narrow"/>
@@ -430,6 +433,9 @@
       </rPr>
       <t>with the correct status "passed" or "failed"</t>
     </r>
+  </si>
+  <si>
+    <t>Alcuni import non utilizzati</t>
   </si>
   <si>
     <r>
@@ -878,7 +884,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -904,6 +910,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -4344,7 +4353,9 @@
       <c r="A5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="8"/>
+      <c r="B5" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="C5" s="6"/>
       <c r="D5" s="10" t="s">
         <v>9</v>
@@ -4354,7 +4365,9 @@
       <c r="A6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="8"/>
+      <c r="B6" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="C6" s="8"/>
       <c r="D6" s="10" t="s">
         <v>12</v>
@@ -4364,8 +4377,12 @@
       <c r="A7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
+      <c r="B7" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="D7" s="10" t="s">
         <v>14</v>
       </c>
@@ -4402,7 +4419,9 @@
       <c r="A11" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="8"/>
+      <c r="B11" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="C11" s="8"/>
       <c r="D11" s="10" t="s">
         <v>17</v>
@@ -4412,10 +4431,12 @@
       <c r="A12" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="8"/>
+      <c r="B12" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="C12" s="8"/>
       <c r="D12" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
@@ -4432,20 +4453,24 @@
       <c r="A14" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="8"/>
+      <c r="B14" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="C14" s="8"/>
       <c r="D14" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" ht="78.0" customHeight="1">
       <c r="A15" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
-      <c r="B15" s="8"/>
+      <c r="B15" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="C15" s="8"/>
       <c r="D15" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1">
@@ -7484,7 +7509,9 @@
       <c r="A5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="8"/>
+      <c r="B5" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="C5" s="6"/>
       <c r="D5" s="10" t="s">
         <v>9</v>
@@ -7494,7 +7521,9 @@
       <c r="A6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="8"/>
+      <c r="B6" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="C6" s="8"/>
       <c r="D6" s="10" t="s">
         <v>12</v>
@@ -7504,7 +7533,9 @@
       <c r="A7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="8"/>
+      <c r="B7" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="C7" s="8"/>
       <c r="D7" s="10" t="s">
         <v>14</v>
@@ -7542,7 +7573,9 @@
       <c r="A11" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="8"/>
+      <c r="B11" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="C11" s="8"/>
       <c r="D11" s="10" t="s">
         <v>17</v>
@@ -7552,10 +7585,14 @@
       <c r="A12" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
+      <c r="B12" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>31</v>
+      </c>
       <c r="D12" s="10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
@@ -7572,20 +7609,24 @@
       <c r="A14" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="8"/>
+      <c r="B14" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="C14" s="8"/>
       <c r="D14" s="10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" ht="78.0" customHeight="1">
       <c r="A15" s="8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
-      <c r="B15" s="8"/>
+      <c r="B15" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="C15" s="8"/>
       <c r="D15" s="10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1">
@@ -10695,7 +10736,7 @@
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
@@ -10715,17 +10756,17 @@
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" ht="78.0" customHeight="1">
       <c r="A15" s="8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1">
@@ -13721,43 +13762,43 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>38</v>
+      <c r="B1" s="13" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="12" t="s">
+    <row r="3" ht="14.25" customHeight="1">
+      <c r="A3" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B3" s="13" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="12" t="s">
+    <row r="4" ht="14.25" customHeight="1">
+      <c r="A4" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B4" s="13" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" customHeight="1">
+      <c r="A5" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1"/>
